--- a/biology/Botanique/Berberis_bealei/Berberis_bealei.xlsx
+++ b/biology/Botanique/Berberis_bealei/Berberis_bealei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis bealei est une espèce d’arbustes à fleurs de la famille des Berberidaceae. 
 Anciennement classé dans le genre Mahonia cette espèce est Berberis bealei Fortune .
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Inflorescence
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,13 +587,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonymes : 
-Mahonia bealei Fortune[1],[3] [2],[4]
-Berberis japonica (Fortune) Skeels[2]
-Berberis japonica Lindl.[1]
-Mahonia japonica var. bealei (Fortune) Fedde[1]</t>
+Mahonia bealei Fortune, ,
+Berberis japonica (Fortune) Skeels
+Berberis japonica Lindl.
+Mahonia japonica var. bealei (Fortune) Fedde</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 novembre 2018)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 novembre 2018) :
 variété Mahonia bealei var. planifolia (Hook. f.) Ahrendt</t>
         </is>
       </c>
